--- a/data/light-reading-cloud/reading-cloud-gateway_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="84">
   <si>
     <t>Class Name</t>
   </si>
@@ -258,13 +258,13 @@
     <t>31</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>23</t>
@@ -1604,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1637,21 +1637,21 @@
         <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1659,10 +1659,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1670,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>79</v>
@@ -1681,32 +1681,32 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1714,10 +1714,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1725,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>74</v>
@@ -1736,10 +1736,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1747,18 +1747,18 @@
         <v>39</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>74</v>
@@ -1766,34 +1766,89 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C22" t="s" s="0">
         <v>82</v>
       </c>
     </row>
